--- a/data/case1/9/P1_1.xlsx
+++ b/data/case1/9/P1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.40113934179210275</v>
+        <v>0.34420358511100346</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.10410058454682769</v>
+        <v>-0.0099999995786674845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999994625333812</v>
+        <v>-0.0089999995717473524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999855866861</v>
+        <v>-0.011999999887926549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999994720127958</v>
+        <v>-0.0059999995781421234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999994576145355</v>
+        <v>-0.0059999995660433569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999354713083</v>
+        <v>-0.019999999486024933</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.023741686406056672</v>
+        <v>-0.019999999481178143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999994541319879</v>
+        <v>-0.0059999995539410378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999994544455149</v>
+        <v>-0.0059999995490969127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999994653736053</v>
+        <v>-0.0044999995568559825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999994549793101</v>
+        <v>-0.0059999995472628243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994583774807</v>
+        <v>0.0096403529921520459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999416307361</v>
+        <v>-0.011999999507116499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994625297148</v>
+        <v>-0.0059999995391812888</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994662769396</v>
+        <v>-0.0059999995377548743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994742065965</v>
+        <v>-0.0059999995359074632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.055809352852875804</v>
+        <v>-0.008999999518649382</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999994773672931</v>
+        <v>-0.0089999995834655344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999994726621679</v>
+        <v>-0.0089999995751597339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999994719125453</v>
+        <v>-0.0089999995734419969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999994714160536</v>
+        <v>-0.03970658401268512</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999994577842912</v>
+        <v>-0.0089999995679113098</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999208860217</v>
+        <v>-0.041999999376749919</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999204573868</v>
+        <v>-0.041999999373315333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999994560904213</v>
+        <v>-0.0059999995653683413</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999994536936718</v>
+        <v>-0.0059999995644473003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999994444996929</v>
+        <v>-0.0059999995613688739</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999394774363</v>
+        <v>-0.011999999526047134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0082933171518875248</v>
+        <v>0.047844991763760447</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999364563976</v>
+        <v>-0.0037455374703245781</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999319939455</v>
+        <v>-0.04923597143425873</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994289592351</v>
+        <v>-0.0059999995514372628</v>
       </c>
     </row>
   </sheetData>
